--- a/data/trans_orig/Q17F_D_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15834</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9646</v>
+        <v>9483</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23839</v>
+        <v>23919</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1242419098964536</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07569086573552676</v>
+        <v>0.07440950761803053</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1870546672501746</v>
+        <v>0.1876829170804046</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -765,19 +765,19 @@
         <v>36116</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26137</v>
+        <v>26640</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49872</v>
+        <v>48821</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1143539497836469</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08275733116007783</v>
+        <v>0.08434973913011314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1579061844260019</v>
+        <v>0.1545790601032601</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -786,19 +786,19 @@
         <v>51950</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40156</v>
+        <v>39944</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65865</v>
+        <v>66900</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1171968215748905</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09058956360930459</v>
+        <v>0.09011123448501168</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.148587705660981</v>
+        <v>0.1509212235247306</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>21593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13833</v>
+        <v>13863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32234</v>
+        <v>30960</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1694327252005104</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.108544521898117</v>
+        <v>0.1087757180307987</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2529281772373521</v>
+        <v>0.2429259464938294</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -836,19 +836,19 @@
         <v>29655</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20036</v>
+        <v>20487</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40886</v>
+        <v>41432</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09389537341757166</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06344073482389523</v>
+        <v>0.0648677026990819</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1294545941490038</v>
+        <v>0.1311838473027666</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -857,19 +857,19 @@
         <v>51248</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38963</v>
+        <v>39443</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66266</v>
+        <v>66348</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1156129980963799</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08789714192196553</v>
+        <v>0.08898162581625362</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1494911182176176</v>
+        <v>0.1496777302785482</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>8152</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3768</v>
+        <v>4377</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14708</v>
+        <v>14649</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06396390753170363</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02956525732258633</v>
+        <v>0.03434562299145709</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1154063140094292</v>
+        <v>0.114945775205437</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -907,19 +907,19 @@
         <v>26369</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18174</v>
+        <v>18076</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37584</v>
+        <v>36622</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08349263030171665</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05754386111968491</v>
+        <v>0.057233209606763</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1190012661844853</v>
+        <v>0.1159533916089482</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -928,19 +928,19 @@
         <v>34521</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>24863</v>
+        <v>24871</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45508</v>
+        <v>47559</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07787795806917179</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05608994033807183</v>
+        <v>0.05610833593295347</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1026621305175675</v>
+        <v>0.1072898463845834</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>81866</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69860</v>
+        <v>71023</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91631</v>
+        <v>92321</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6423614573713323</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5481557910017997</v>
+        <v>0.557281073596853</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7189808066670379</v>
+        <v>0.7243965582012727</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>214</v>
@@ -978,19 +978,19 @@
         <v>223689</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>207379</v>
+        <v>207082</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>239121</v>
+        <v>238028</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7082580464970648</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6566157888172388</v>
+        <v>0.655674092921431</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7571187711978399</v>
+        <v>0.7536574870660384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>299</v>
@@ -999,19 +999,19 @@
         <v>305555</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>283520</v>
+        <v>283712</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>322724</v>
+        <v>324641</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6893122222595578</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6396020671627299</v>
+        <v>0.6400369972569886</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7280450801837411</v>
+        <v>0.7323692586383637</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>27144</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19102</v>
+        <v>18028</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>37718</v>
+        <v>38127</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1212450238188977</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08532582252205126</v>
+        <v>0.08052599799633227</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1684765000244854</v>
+        <v>0.1703040269330307</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>31</v>
@@ -1124,19 +1124,19 @@
         <v>32952</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22562</v>
+        <v>23588</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>44527</v>
+        <v>44900</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1077862981404485</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07379863864025621</v>
+        <v>0.0771548895304026</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1456482261507662</v>
+        <v>0.1468674635168633</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>59</v>
@@ -1145,19 +1145,19 @@
         <v>60096</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>45739</v>
+        <v>46725</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>74946</v>
+        <v>75955</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1134757299271614</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08636583506729746</v>
+        <v>0.08822793755071118</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1415158937835802</v>
+        <v>0.1434208264058671</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>9283</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4666</v>
+        <v>3940</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17247</v>
+        <v>16494</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04146479594323577</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02084102439708891</v>
+        <v>0.01759747130646183</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0770378419979843</v>
+        <v>0.07367489699136873</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1195,19 +1195,19 @@
         <v>15276</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8828</v>
+        <v>8814</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25041</v>
+        <v>23571</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04996614559305548</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02887737865895554</v>
+        <v>0.02882988037453162</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08190709920184894</v>
+        <v>0.07709938621416323</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1216,19 +1216,19 @@
         <v>24559</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15787</v>
+        <v>16632</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36389</v>
+        <v>36121</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04637235446578002</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02980959587384157</v>
+        <v>0.03140597652956306</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06871020670913895</v>
+        <v>0.06820580381266164</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>27578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18384</v>
+        <v>18713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38310</v>
+        <v>39509</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1231833026658596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08211451943841423</v>
+        <v>0.08358657750265691</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1711208013967558</v>
+        <v>0.1764745415155938</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -1266,19 +1266,19 @@
         <v>34879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23671</v>
+        <v>23461</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46271</v>
+        <v>46136</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.114089560231611</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07742609608672382</v>
+        <v>0.07674041565121884</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1513504990966158</v>
+        <v>0.1509088922764157</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>61</v>
@@ -1287,19 +1287,19 @@
         <v>62457</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>47636</v>
+        <v>48366</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78974</v>
+        <v>77592</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1179337746469802</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0899487402917047</v>
+        <v>0.09132681581254597</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1491214049883306</v>
+        <v>0.1465119767018037</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>159872</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>145756</v>
+        <v>145243</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>172095</v>
+        <v>173499</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7141068775720069</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6510543929825682</v>
+        <v>0.6487628079249622</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7687046439727542</v>
+        <v>0.7749766762090807</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>220</v>
@@ -1337,19 +1337,19 @@
         <v>222612</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>205802</v>
+        <v>208189</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>237361</v>
+        <v>238493</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7281579960348851</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6731753226673906</v>
+        <v>0.680982279127063</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.776403173428541</v>
+        <v>0.7801037414547962</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>380</v>
@@ -1358,19 +1358,19 @@
         <v>382483</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>361780</v>
+        <v>361705</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>403041</v>
+        <v>402061</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7222181409600784</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6831266332337693</v>
+        <v>0.6829843380481062</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7610355049104085</v>
+        <v>0.7591866904861166</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>23131</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14973</v>
+        <v>14818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33157</v>
+        <v>33390</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1317924250874373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08531188184220674</v>
+        <v>0.08442571997970946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1889180209833575</v>
+        <v>0.1902436731128942</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1483,19 +1483,19 @@
         <v>23465</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14925</v>
+        <v>15538</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33575</v>
+        <v>35047</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09573503464655804</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06089284616506373</v>
+        <v>0.06339319020586563</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1369849888519157</v>
+        <v>0.1429896886391949</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>45</v>
@@ -1504,19 +1504,19 @@
         <v>46595</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35137</v>
+        <v>35314</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61117</v>
+        <v>61816</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1107808987137635</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08353766939588217</v>
+        <v>0.08396002694491717</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1453055096092866</v>
+        <v>0.146967513348562</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>10604</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5645</v>
+        <v>4846</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17495</v>
+        <v>17820</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06041782981794804</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03216582018261256</v>
+        <v>0.02761262811767434</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09968365959000682</v>
+        <v>0.1015310949827354</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>24</v>
@@ -1554,19 +1554,19 @@
         <v>24444</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16408</v>
+        <v>16292</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>34900</v>
+        <v>34930</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09972943520789633</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06694240070219439</v>
+        <v>0.06646946366624774</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1423901933365417</v>
+        <v>0.1425151453115802</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>35</v>
@@ -1575,19 +1575,19 @@
         <v>35048</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>25194</v>
+        <v>25650</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>47521</v>
+        <v>47382</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08332566711129524</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05989810606463915</v>
+        <v>0.06098268806683068</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1129819343248566</v>
+        <v>0.1126506302717707</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>16861</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10215</v>
+        <v>10353</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25040</v>
+        <v>25715</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09606875044307457</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0581998728753957</v>
+        <v>0.05898761061130182</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1426702824868211</v>
+        <v>0.1465145013975038</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1625,19 +1625,19 @@
         <v>17285</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10555</v>
+        <v>10515</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27027</v>
+        <v>27011</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07052132790144551</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04306446380517208</v>
+        <v>0.04289993693281925</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1102717028187642</v>
+        <v>0.1102032346243383</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1646,19 +1646,19 @@
         <v>34146</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24463</v>
+        <v>24471</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45367</v>
+        <v>46796</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08118164031254629</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05816020826528656</v>
+        <v>0.05817922862330427</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1078607632952622</v>
+        <v>0.1112575104612051</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>124914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>112180</v>
+        <v>112764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>136055</v>
+        <v>136498</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.71172099465154</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6391673640338278</v>
+        <v>0.6424934121200772</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7751976725179772</v>
+        <v>0.7777239760876431</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -1696,19 +1696,19 @@
         <v>179906</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166282</v>
+        <v>165113</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>193414</v>
+        <v>192875</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7340142022441002</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.678428120981987</v>
+        <v>0.6736575775948468</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7891270375192017</v>
+        <v>0.7869281921335994</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>301</v>
@@ -1717,19 +1717,19 @@
         <v>304820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>284920</v>
+        <v>286814</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>321733</v>
+        <v>322037</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7247117938623949</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6773978308974982</v>
+        <v>0.6819023247454773</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7649212196677673</v>
+        <v>0.7656440246559514</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>7334</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3516</v>
+        <v>3599</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12879</v>
+        <v>13234</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1159134590039361</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0555736480703545</v>
+        <v>0.05687960205178431</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.203546134030273</v>
+        <v>0.2091569554604445</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1842,19 +1842,19 @@
         <v>10001</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5254</v>
+        <v>5125</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17689</v>
+        <v>17422</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1364755592956949</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07169051895582486</v>
+        <v>0.06993462515919255</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2413805819887373</v>
+        <v>0.2377391756075366</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1863,19 +1863,19 @@
         <v>17335</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10159</v>
+        <v>10427</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25878</v>
+        <v>26642</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1269480689405353</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07439255086100824</v>
+        <v>0.07635417289224307</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1895050859043557</v>
+        <v>0.195097747853538</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>9012</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4044</v>
+        <v>4585</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15288</v>
+        <v>16598</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1424313689624025</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06390932367975348</v>
+        <v>0.0724621679493946</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2416253308570999</v>
+        <v>0.2623268439594888</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1913,19 +1913,19 @@
         <v>3182</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8620</v>
+        <v>8481</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04341656242837606</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01362669147737794</v>
+        <v>0.01361223143601474</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1176228391156177</v>
+        <v>0.1157326067469432</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1934,19 +1934,19 @@
         <v>12194</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5914</v>
+        <v>6913</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19526</v>
+        <v>21037</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08929527135817496</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04330879693222894</v>
+        <v>0.05062767595588492</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1429890341834495</v>
+        <v>0.1540580790522441</v>
       </c>
     </row>
     <row r="21">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4957</v>
+        <v>4597</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01591204301991546</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07833767998212736</v>
+        <v>0.07264968194792794</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -1984,19 +1984,19 @@
         <v>8748</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4205</v>
+        <v>4186</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15393</v>
+        <v>15310</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1193712079955128</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0573830167802095</v>
+        <v>0.05711975602053507</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2100575019046974</v>
+        <v>0.2089121790324362</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>10</v>
@@ -2005,19 +2005,19 @@
         <v>9755</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4910</v>
+        <v>5096</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17675</v>
+        <v>17286</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07143319667995958</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03595625620894614</v>
+        <v>0.03731985352549654</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1294325851862494</v>
+        <v>0.126584956335588</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>45920</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38528</v>
+        <v>38075</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52710</v>
+        <v>52619</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7257431290137459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6089116138058066</v>
+        <v>0.601758218909264</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8330522682815148</v>
+        <v>0.8316205667658102</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -2055,19 +2055,19 @@
         <v>51351</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42469</v>
+        <v>42703</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58267</v>
+        <v>58543</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7007366702804162</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5795237361098226</v>
+        <v>0.5827230895132294</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7951107709451983</v>
+        <v>0.7988774948125564</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>95</v>
@@ -2076,19 +2076,19 @@
         <v>97271</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>86194</v>
+        <v>86078</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107505</v>
+        <v>107298</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7123234630213302</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6312008784376621</v>
+        <v>0.6303574263228764</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7872622080159363</v>
+        <v>0.7857478425545538</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>73443</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>58965</v>
+        <v>58381</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>89594</v>
+        <v>89891</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1244576176750781</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09992232085913233</v>
+        <v>0.09893401673610963</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1518273941997595</v>
+        <v>0.152329866689401</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>97</v>
@@ -2201,19 +2201,19 @@
         <v>102534</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>83578</v>
+        <v>84856</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>121593</v>
+        <v>122550</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1090873632298893</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08891981649422753</v>
+        <v>0.0902789052807469</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1293639369910186</v>
+        <v>0.1303819067843012</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>172</v>
@@ -2222,19 +2222,19 @@
         <v>175978</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>152085</v>
+        <v>152573</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>200763</v>
+        <v>204266</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1150153756750279</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09939952449184666</v>
+        <v>0.09971838960066505</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1312144055351155</v>
+        <v>0.1335041870116532</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>50492</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37596</v>
+        <v>38763</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64419</v>
+        <v>65631</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08556511722465586</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06371150320737379</v>
+        <v>0.06568797998554689</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1091645614750257</v>
+        <v>0.1112198634378239</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -2272,19 +2272,19 @@
         <v>72556</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56707</v>
+        <v>57338</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>90929</v>
+        <v>90390</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07719280284654143</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06033059194832608</v>
+        <v>0.06100215263361567</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09674055755609763</v>
+        <v>0.09616656677571503</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>120</v>
@@ -2293,19 +2293,19 @@
         <v>123048</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>102537</v>
+        <v>102289</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>144371</v>
+        <v>146364</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08042184397953391</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06701630872876219</v>
+        <v>0.06685387896863139</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09435806527188842</v>
+        <v>0.09566042644035007</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>53598</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>39942</v>
+        <v>40116</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>67977</v>
+        <v>69123</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09082723165565806</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06768642387192106</v>
+        <v>0.06798194409037527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1151941943530992</v>
+        <v>0.1171363563790305</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>87</v>
@@ -2343,19 +2343,19 @@
         <v>87281</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>70215</v>
+        <v>71284</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>106746</v>
+        <v>104702</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09285933676377527</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07470284489577336</v>
+        <v>0.07584014097579102</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1135684970728513</v>
+        <v>0.1113935485149839</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>142</v>
@@ -2364,19 +2364,19 @@
         <v>140879</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>119618</v>
+        <v>117973</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>162676</v>
+        <v>163561</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09207559278518945</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07817980408827409</v>
+        <v>0.07710467123057976</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1063216311475983</v>
+        <v>0.1069000990026077</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>412572</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>391096</v>
+        <v>390417</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>436772</v>
+        <v>435573</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.699150033444608</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.662757071643026</v>
+        <v>0.6616061414200952</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7401596356734469</v>
+        <v>0.738127509288608</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>663</v>
@@ -2414,19 +2414,19 @@
         <v>677558</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>649086</v>
+        <v>650790</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>706766</v>
+        <v>704554</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7208604971597939</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6905680496805655</v>
+        <v>0.6923813807695788</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7519348798104933</v>
+        <v>0.749581864825919</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1075</v>
@@ -2435,19 +2435,19 @@
         <v>1090130</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1054160</v>
+        <v>1054731</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1124373</v>
+        <v>1125916</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7124871875602488</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6889774393006858</v>
+        <v>0.6893508360898482</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7348675795898317</v>
+        <v>0.7358758125057968</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>29175</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19855</v>
+        <v>20541</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42229</v>
+        <v>40222</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1173150831510419</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0798362171647129</v>
+        <v>0.08259800063379857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1698067301639448</v>
+        <v>0.1617345805747097</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -2800,19 +2800,19 @@
         <v>39533</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28687</v>
+        <v>28793</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53823</v>
+        <v>53313</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1014363470113938</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07360617844821148</v>
+        <v>0.07387827747971364</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1381011858695647</v>
+        <v>0.1367927012176716</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -2821,19 +2821,19 @@
         <v>68709</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53974</v>
+        <v>53391</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86966</v>
+        <v>86657</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1076216868602919</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08454129430158057</v>
+        <v>0.08362894990806299</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.136218887107217</v>
+        <v>0.1357345002469862</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>20632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13258</v>
+        <v>13075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32055</v>
+        <v>32570</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08296316629860706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05330953383902723</v>
+        <v>0.05257530858221489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.128894642930684</v>
+        <v>0.1309649286613876</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -2871,19 +2871,19 @@
         <v>36171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25413</v>
+        <v>25637</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50116</v>
+        <v>50364</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09280772307724669</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06520617687911849</v>
+        <v>0.06578116957909472</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.128589607691091</v>
+        <v>0.129225206627941</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -2892,19 +2892,19 @@
         <v>56803</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42628</v>
+        <v>41353</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73418</v>
+        <v>74231</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08897291350536796</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06677029267130105</v>
+        <v>0.06477346963602164</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1149981983478637</v>
+        <v>0.1162719364459186</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>27796</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18290</v>
+        <v>18586</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40964</v>
+        <v>40491</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1117685293339844</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07354369833912897</v>
+        <v>0.07473643800414108</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1647204710226906</v>
+        <v>0.1628145598729991</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>55</v>
@@ -2942,19 +2942,19 @@
         <v>59504</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46988</v>
+        <v>46461</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>76647</v>
+        <v>75568</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1526766468142164</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1205620785551322</v>
+        <v>0.1192099008272158</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1966621175298393</v>
+        <v>0.1938947115451314</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>79</v>
@@ -2963,19 +2963,19 @@
         <v>87300</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>69993</v>
+        <v>70461</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>105607</v>
+        <v>106663</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1367414611062001</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1096329262136928</v>
+        <v>0.1103658009751516</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1654175716017835</v>
+        <v>0.1670710874388981</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>171088</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>155448</v>
+        <v>156343</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>185087</v>
+        <v>186815</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6879532212163666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6250631698931026</v>
+        <v>0.6286620635508204</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.744246042460627</v>
+        <v>0.7511935510675302</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>236</v>
@@ -3013,19 +3013,19 @@
         <v>254529</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>234590</v>
+        <v>236285</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>274044</v>
+        <v>274217</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6530792830971431</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6019180304468248</v>
+        <v>0.6062670634556709</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7031510964312057</v>
+        <v>0.7035962138501949</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>393</v>
@@ -3034,19 +3034,19 @@
         <v>425617</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>400716</v>
+        <v>400156</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>448607</v>
+        <v>452163</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6666639385281401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6276608682721476</v>
+        <v>0.6267838109474138</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7026739630206976</v>
+        <v>0.7082445931605925</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>35257</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25087</v>
+        <v>24880</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>47928</v>
+        <v>47498</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1679478146595289</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1195018500454749</v>
+        <v>0.1185179489220906</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2283027514067791</v>
+        <v>0.226256783201906</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>32</v>
@@ -3159,19 +3159,19 @@
         <v>32616</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22461</v>
+        <v>22520</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>43731</v>
+        <v>43604</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09032858131676028</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06220486183715432</v>
+        <v>0.06236926646533741</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1211117559265947</v>
+        <v>0.1207576986125848</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>64</v>
@@ -3180,19 +3180,19 @@
         <v>67873</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>52682</v>
+        <v>52017</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>85671</v>
+        <v>84235</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.118864877200536</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09226060462296171</v>
+        <v>0.09109693648540132</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1500342975495527</v>
+        <v>0.147519640483756</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>9251</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4925</v>
+        <v>4131</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17974</v>
+        <v>16239</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04406543559379871</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02345883315013536</v>
+        <v>0.0196773668672022</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08561994132613841</v>
+        <v>0.07735660379983181</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3230,19 +3230,19 @@
         <v>30479</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20686</v>
+        <v>20479</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43543</v>
+        <v>42821</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08441083533143356</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05728928389403843</v>
+        <v>0.05671613579490139</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1205891082292286</v>
+        <v>0.1185907121746399</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -3251,19 +3251,19 @@
         <v>39730</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29106</v>
+        <v>28789</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55818</v>
+        <v>54400</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06957806496151574</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05097205580905763</v>
+        <v>0.05041750246220929</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09775278799711019</v>
+        <v>0.09527017088908428</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>27255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18029</v>
+        <v>18431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39022</v>
+        <v>38584</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1298279880846086</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08587994499497839</v>
+        <v>0.08779463564717076</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1858796472348453</v>
+        <v>0.1837941234309679</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>47</v>
@@ -3301,19 +3301,19 @@
         <v>50249</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37788</v>
+        <v>37899</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>65742</v>
+        <v>65202</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1391611945343009</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1046518989045701</v>
+        <v>0.1049599085794076</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1820677442392574</v>
+        <v>0.1805734367619086</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>72</v>
@@ -3322,19 +3322,19 @@
         <v>77503</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>62856</v>
+        <v>62240</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>94732</v>
+        <v>95712</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1357298911147394</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1100782461610367</v>
+        <v>0.108999990727672</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1659021327460121</v>
+        <v>0.1676185370636056</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>138167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>121971</v>
+        <v>123176</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>151501</v>
+        <v>152562</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6581587616620638</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5810102408844221</v>
+        <v>0.5867467923100977</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7216749862560494</v>
+        <v>0.7267273817204041</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>233</v>
@@ -3372,19 +3372,19 @@
         <v>247739</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>229203</v>
+        <v>228682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>265125</v>
+        <v>264209</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6860993888175052</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6347644151695407</v>
+        <v>0.6333225447430215</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7342501630158397</v>
+        <v>0.7317118669005025</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>360</v>
@@ -3393,19 +3393,19 @@
         <v>385905</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>360826</v>
+        <v>363710</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>408702</v>
+        <v>408708</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6758271667232089</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6319065004847465</v>
+        <v>0.6369574748560898</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7157510806932036</v>
+        <v>0.7157602364038149</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>22221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15233</v>
+        <v>14416</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34533</v>
+        <v>33059</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1189901666871111</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08157227008358597</v>
+        <v>0.07719556933875202</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.184918529092101</v>
+        <v>0.1770240180243652</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -3518,19 +3518,19 @@
         <v>28263</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19230</v>
+        <v>19041</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39308</v>
+        <v>40351</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1150942392510355</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07830986030482338</v>
+        <v>0.07753957864845668</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1600740919309416</v>
+        <v>0.1643192605031578</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>48</v>
@@ -3539,19 +3539,19 @@
         <v>50484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38149</v>
+        <v>37948</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>64125</v>
+        <v>63998</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1167771727538913</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08824563179149288</v>
+        <v>0.08777931921006668</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1483312832010857</v>
+        <v>0.1480376186081039</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>10100</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4961</v>
+        <v>4902</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18547</v>
+        <v>18360</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05408627271705273</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02656606546306049</v>
+        <v>0.02624853770608868</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0993171040819905</v>
+        <v>0.09831392341119548</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>19</v>
@@ -3589,19 +3589,19 @@
         <v>19792</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12956</v>
+        <v>11820</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29546</v>
+        <v>29571</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08059906365561424</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05276166186058304</v>
+        <v>0.04813514592980489</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1203185567903616</v>
+        <v>0.1204222085101421</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>28</v>
@@ -3610,19 +3610,19 @@
         <v>29893</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>20592</v>
+        <v>20838</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>40708</v>
+        <v>42030</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06914626715033276</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04763209727026593</v>
+        <v>0.04820227008594322</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09416371433570302</v>
+        <v>0.09722243784716347</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>17130</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10507</v>
+        <v>9951</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27097</v>
+        <v>25964</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09172827923057013</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05626121475351972</v>
+        <v>0.05328508378321779</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1451006192198829</v>
+        <v>0.1390326932506151</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -3660,19 +3660,19 @@
         <v>14454</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8172</v>
+        <v>8985</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22514</v>
+        <v>22271</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05886186076907333</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03327724987969816</v>
+        <v>0.03658950731842338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.091682093175768</v>
+        <v>0.09069324997689565</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -3681,19 +3681,19 @@
         <v>31584</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21619</v>
+        <v>22525</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43719</v>
+        <v>43959</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07305924962071159</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05000860056051644</v>
+        <v>0.05210468401309876</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1011293786958702</v>
+        <v>0.1016839101201451</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>137295</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>124723</v>
+        <v>123344</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>149385</v>
+        <v>149188</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7351952813652661</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6678753439285109</v>
+        <v>0.6604908575188294</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7999386098723721</v>
+        <v>0.7988819147986992</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>173</v>
@@ -3731,19 +3731,19 @@
         <v>183054</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>167749</v>
+        <v>168830</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195869</v>
+        <v>195756</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7454448363242769</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6831179952513537</v>
+        <v>0.6875208197495555</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7976306587438962</v>
+        <v>0.7971696250003371</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>303</v>
@@ -3752,19 +3752,19 @@
         <v>320348</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>301288</v>
+        <v>303033</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>337994</v>
+        <v>341011</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7410173104750644</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6969276238175789</v>
+        <v>0.7009634138228196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7818336574299662</v>
+        <v>0.7888130101277465</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>7227</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2806</v>
+        <v>2826</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14834</v>
+        <v>15317</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07256579935253241</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02817300922769359</v>
+        <v>0.02837701535242413</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1489586366557935</v>
+        <v>0.1538055099602522</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -3877,19 +3877,19 @@
         <v>16470</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10224</v>
+        <v>10330</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25034</v>
+        <v>26019</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1527826193441933</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09484103167506432</v>
+        <v>0.09582482149495637</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2322287262619149</v>
+        <v>0.2413648714683375</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -3898,19 +3898,19 @@
         <v>23696</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14874</v>
+        <v>15608</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33197</v>
+        <v>34694</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1142624366502633</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07172112009912703</v>
+        <v>0.07526054026162381</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.16007391628864</v>
+        <v>0.1672925475200869</v>
       </c>
     </row>
     <row r="20">
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6752</v>
+        <v>7964</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01936332563793889</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06779859515543969</v>
+        <v>0.07997250050820025</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -3948,19 +3948,19 @@
         <v>8287</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4009</v>
+        <v>3313</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17397</v>
+        <v>15918</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07687518079307708</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03719433016015748</v>
+        <v>0.0307312131870976</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1613812224433101</v>
+        <v>0.1476660927659178</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -3969,19 +3969,19 @@
         <v>10215</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4978</v>
+        <v>4836</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19418</v>
+        <v>18269</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04925794081930269</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02400284262135535</v>
+        <v>0.02331893267813276</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09363345210015288</v>
+        <v>0.0880940901466737</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>5416</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2093</v>
+        <v>1186</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14726</v>
+        <v>13319</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05438830426250036</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02101698799508833</v>
+        <v>0.01190443434546369</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1478735673669154</v>
+        <v>0.1337414214071544</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -4019,19 +4019,19 @@
         <v>6962</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2740</v>
+        <v>2991</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13897</v>
+        <v>14574</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06458349935409434</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02541854145446414</v>
+        <v>0.0277434892176098</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1289207265858172</v>
+        <v>0.1351945638296823</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>10</v>
@@ -4040,19 +4040,19 @@
         <v>12378</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6257</v>
+        <v>6342</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>22407</v>
+        <v>22599</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05968775831662508</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03016998382782781</v>
+        <v>0.03057886977887891</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1080449329382205</v>
+        <v>0.108972433973831</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>85015</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>74207</v>
+        <v>75897</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>91665</v>
+        <v>91422</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8536825707470284</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7451562625572767</v>
+        <v>0.7621270147066602</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9204636062120073</v>
+        <v>0.9180174603814508</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -4090,19 +4090,19 @@
         <v>76079</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>65446</v>
+        <v>66190</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85408</v>
+        <v>84687</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7057587005086353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6071174666582464</v>
+        <v>0.6140226830736601</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7922987177740585</v>
+        <v>0.7856083260596932</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>143</v>
@@ -4111,19 +4111,19 @@
         <v>161095</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>146974</v>
+        <v>147253</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>173017</v>
+        <v>173626</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7767918642138089</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7087009812084186</v>
+        <v>0.7100443660820771</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8342792571087967</v>
+        <v>0.8372135756395794</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>93880</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75413</v>
+        <v>76358</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>114706</v>
+        <v>117269</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.126021287359066</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1012320754739105</v>
+        <v>0.1025004411143152</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.153977267576926</v>
+        <v>0.1574187809898576</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>111</v>
@@ -4236,19 +4236,19 @@
         <v>116882</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>95347</v>
+        <v>96299</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>136949</v>
+        <v>139010</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1058541943262337</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08635091522460117</v>
+        <v>0.08721301620808282</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1240272069421639</v>
+        <v>0.1258940890855734</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>198</v>
@@ -4257,19 +4257,19 @@
         <v>210762</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>182862</v>
+        <v>186580</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>238060</v>
+        <v>241414</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1139788198065513</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09889086624043472</v>
+        <v>0.1009015463817874</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1287415760749981</v>
+        <v>0.1305554150086979</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>41911</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30510</v>
+        <v>29478</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57569</v>
+        <v>57622</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05626065534493772</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04095567679278875</v>
+        <v>0.03956976977772149</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07727865360617164</v>
+        <v>0.07734984793278768</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>86</v>
@@ -4307,19 +4307,19 @@
         <v>94729</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>76473</v>
+        <v>76245</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>115707</v>
+        <v>116077</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08579123782152602</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.069257207162117</v>
+        <v>0.06905080684436465</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1047902283043034</v>
+        <v>0.1051248927126398</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -4328,19 +4328,19 @@
         <v>136641</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>114114</v>
+        <v>113502</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>162432</v>
+        <v>160126</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07389438573444988</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06171195611499842</v>
+        <v>0.06138131515370485</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08784211324743581</v>
+        <v>0.08659515384130059</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>77597</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62023</v>
+        <v>62233</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>96387</v>
+        <v>97567</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1041633413605974</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08325743867534728</v>
+        <v>0.0835396797886956</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1293873605366552</v>
+        <v>0.1309706405756015</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>122</v>
@@ -4378,19 +4378,19 @@
         <v>131169</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>110906</v>
+        <v>111291</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>156075</v>
+        <v>152210</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1187927430301864</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1004415734241874</v>
+        <v>0.1007902037757149</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1413487091985262</v>
+        <v>0.13784829793879</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>191</v>
@@ -4399,19 +4399,19 @@
         <v>208765</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>181980</v>
+        <v>181246</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>236203</v>
+        <v>238707</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1128990622020651</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09841345785001912</v>
+        <v>0.09801644652204158</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1277368439128549</v>
+        <v>0.1290910210153121</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>531564</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>506383</v>
+        <v>503882</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>556945</v>
+        <v>557561</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7135547159353989</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6797525879383127</v>
+        <v>0.6763955308929958</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7476257852528417</v>
+        <v>0.7484519200902456</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>711</v>
@@ -4449,19 +4449,19 @@
         <v>761402</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>727781</v>
+        <v>732060</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>791122</v>
+        <v>794155</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6895618248220539</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6591136436954537</v>
+        <v>0.6629885404571231</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7164778743532749</v>
+        <v>0.7192251577824273</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1199</v>
@@ -4470,19 +4470,19 @@
         <v>1292966</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1250665</v>
+        <v>1248940</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1331857</v>
+        <v>1329987</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6992277322569337</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6763516435253243</v>
+        <v>0.675419069854682</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7202600695013458</v>
+        <v>0.7192486194527169</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>34873</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23637</v>
+        <v>23609</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48027</v>
+        <v>48032</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1322676345389869</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08964999916618853</v>
+        <v>0.08954376488817058</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1821555806134811</v>
+        <v>0.1821760544764202</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -4835,19 +4835,19 @@
         <v>49651</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37338</v>
+        <v>38003</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65111</v>
+        <v>63978</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1193810993597742</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08977606588186224</v>
+        <v>0.09137464300886634</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1565540079579481</v>
+        <v>0.1538299017517208</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -4856,19 +4856,19 @@
         <v>84524</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67959</v>
+        <v>68089</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>103243</v>
+        <v>103431</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.124380842241212</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1000035737060128</v>
+        <v>0.1001962602343087</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1519257780164447</v>
+        <v>0.1522022841995657</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>12573</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6103</v>
+        <v>7493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21018</v>
+        <v>21812</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04768585336482039</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0231456418876524</v>
+        <v>0.02841995627932755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07971841781708033</v>
+        <v>0.08272951166560481</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -4906,19 +4906,19 @@
         <v>37314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25849</v>
+        <v>26388</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52434</v>
+        <v>51636</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0897184785470659</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06215078224934068</v>
+        <v>0.06344729797470983</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1260729576571668</v>
+        <v>0.1241534911857372</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -4927,19 +4927,19 @@
         <v>49887</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37193</v>
+        <v>36685</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66163</v>
+        <v>65237</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07341057920713509</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05473158768473941</v>
+        <v>0.05398315092415565</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09736166881601085</v>
+        <v>0.09599808032495027</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>27394</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18640</v>
+        <v>18591</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39866</v>
+        <v>40803</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.103900266876853</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07069753283443468</v>
+        <v>0.07051153521931974</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1512056413863579</v>
+        <v>0.1547572732180709</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>57</v>
@@ -4977,19 +4977,19 @@
         <v>58767</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>45807</v>
+        <v>43800</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73349</v>
+        <v>72957</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1413001926807064</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1101390416660524</v>
+        <v>0.105312698005818</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1763595924369278</v>
+        <v>0.1754176713383779</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>82</v>
@@ -4998,19 +4998,19 @@
         <v>86161</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>70161</v>
+        <v>69437</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>106705</v>
+        <v>104492</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1267896970196419</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.103244400993105</v>
+        <v>0.1021788514000517</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1570202776060507</v>
+        <v>0.1537642195627072</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>188817</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>171745</v>
+        <v>172771</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>202132</v>
+        <v>202436</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7161462452193398</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.65139445702998</v>
+        <v>0.6552878368430946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7666492792806833</v>
+        <v>0.767802346793513</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>248</v>
@@ -5048,19 +5048,19 @@
         <v>270171</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>247821</v>
+        <v>248819</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>289419</v>
+        <v>289660</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6496002294124535</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5958611666606637</v>
+        <v>0.5982607171911034</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6958784798134694</v>
+        <v>0.6964599446613224</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>424</v>
@@ -5069,19 +5069,19 @@
         <v>458988</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>434145</v>
+        <v>433157</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>484553</v>
+        <v>482028</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6754188815320109</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6388615083162642</v>
+        <v>0.6374073476480314</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7130383619847031</v>
+        <v>0.7093223555642174</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>21618</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13757</v>
+        <v>13339</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32181</v>
+        <v>31828</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.100927735054315</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06422536629870947</v>
+        <v>0.06227555895471981</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1502414345432816</v>
+        <v>0.1485938932617884</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>41</v>
@@ -5194,19 +5194,19 @@
         <v>45530</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>33676</v>
+        <v>32866</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60397</v>
+        <v>59233</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1398610441373939</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1034472732042803</v>
+        <v>0.1009583708609925</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1855303968951255</v>
+        <v>0.1819522585143319</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>61</v>
@@ -5215,19 +5215,19 @@
         <v>67148</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>52781</v>
+        <v>52600</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>83939</v>
+        <v>83023</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1244103668637074</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09779057172176335</v>
+        <v>0.09745618033196278</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1555202660000841</v>
+        <v>0.1538238310132644</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>13279</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7397</v>
+        <v>7399</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21715</v>
+        <v>22352</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06199502931980243</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03453566512853107</v>
+        <v>0.03454443400132602</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1013831924780233</v>
+        <v>0.1043543237456343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -5265,19 +5265,19 @@
         <v>36042</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25870</v>
+        <v>25466</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49084</v>
+        <v>48813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1107163641474456</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07946693742595567</v>
+        <v>0.07822797020718085</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1507782561033575</v>
+        <v>0.14994540453255</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -5286,19 +5286,19 @@
         <v>49321</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37156</v>
+        <v>36757</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64708</v>
+        <v>64074</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09138131047505405</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06884212146762519</v>
+        <v>0.06810271138444057</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1198893183938216</v>
+        <v>0.1187146462360124</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>29343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20076</v>
+        <v>19108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41130</v>
+        <v>39987</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.136993739377244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09373131289645718</v>
+        <v>0.08921102068091902</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1920257421640856</v>
+        <v>0.1866887049469826</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -5336,19 +5336,19 @@
         <v>29369</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19804</v>
+        <v>20012</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41283</v>
+        <v>41464</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09021765382498277</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06083539388001945</v>
+        <v>0.06147482734413152</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1268158146440245</v>
+        <v>0.1273696107390863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>56</v>
@@ -5357,19 +5357,19 @@
         <v>58712</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45149</v>
+        <v>44846</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73984</v>
+        <v>74366</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1087807356440015</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08365153532574894</v>
+        <v>0.08308923748498975</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1370749342498243</v>
+        <v>0.1377840788853189</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>149952</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>134300</v>
+        <v>135946</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>162803</v>
+        <v>163910</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7000834962486386</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6270077998916811</v>
+        <v>0.6346934363742434</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7600794982223957</v>
+        <v>0.7652490398603777</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>199</v>
@@ -5407,19 +5407,19 @@
         <v>214597</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>197130</v>
+        <v>196564</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>233111</v>
+        <v>231296</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6592049378901778</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6055497024653697</v>
+        <v>0.6038120236234729</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7160767981371543</v>
+        <v>0.7105015225378876</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>345</v>
@@ -5428,19 +5428,19 @@
         <v>364549</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>342487</v>
+        <v>341905</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>386230</v>
+        <v>386547</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.675427587017237</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6345522016933736</v>
+        <v>0.6334732686418744</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.715597484161334</v>
+        <v>0.7161845310549809</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>14300</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7454</v>
+        <v>7821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23544</v>
+        <v>24065</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0679177183997977</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03540287810385323</v>
+        <v>0.03714315413153793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1118196048966897</v>
+        <v>0.1142924969743301</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -5553,19 +5553,19 @@
         <v>21246</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13261</v>
+        <v>13918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31320</v>
+        <v>30691</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08818779757621446</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05504629818629391</v>
+        <v>0.05777171472253739</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1300063191650667</v>
+        <v>0.1273937381063898</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -5574,19 +5574,19 @@
         <v>35546</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25190</v>
+        <v>25272</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48847</v>
+        <v>49473</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07873429922998466</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05579654612716291</v>
+        <v>0.05597813898261429</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1081967902634607</v>
+        <v>0.1095823725461723</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>16211</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9939</v>
+        <v>9229</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>25941</v>
+        <v>24563</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07698980847619871</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04720306069129291</v>
+        <v>0.0438343486605076</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1232016425711533</v>
+        <v>0.1166587153958556</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>23</v>
@@ -5624,19 +5624,19 @@
         <v>24522</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15803</v>
+        <v>16067</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>34894</v>
+        <v>34942</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1017861790018028</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06559579499217691</v>
+        <v>0.06669170354473429</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1448408168747954</v>
+        <v>0.1450409400963017</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>38</v>
@@ -5645,19 +5645,19 @@
         <v>40732</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>28946</v>
+        <v>29472</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>55336</v>
+        <v>53838</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09022172255759578</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06411513921377429</v>
+        <v>0.06528035021685621</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1225699581665027</v>
+        <v>0.119251450507163</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>29920</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20595</v>
+        <v>21420</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41837</v>
+        <v>41726</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1421013993372033</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09781281378973558</v>
+        <v>0.101732331735393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1987005839680357</v>
+        <v>0.1981709808968088</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -5695,19 +5695,19 @@
         <v>20318</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13145</v>
+        <v>12524</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30611</v>
+        <v>29712</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08433656738582763</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05456216239117134</v>
+        <v>0.0519875443264936</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.127061580886388</v>
+        <v>0.1233313532148382</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -5716,19 +5716,19 @@
         <v>50238</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37940</v>
+        <v>38433</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66946</v>
+        <v>65428</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1112767553628884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08403789731304996</v>
+        <v>0.08512954145369227</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1482848143117073</v>
+        <v>0.1449220738770485</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>150123</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>135763</v>
+        <v>135042</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>162975</v>
+        <v>161513</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7129910737868003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6447882716174724</v>
+        <v>0.6413654947560583</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7740275660311429</v>
+        <v>0.7670870073530531</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -5766,19 +5766,19 @@
         <v>174828</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>160460</v>
+        <v>161540</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>188398</v>
+        <v>187646</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7256894560361551</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6660489880865565</v>
+        <v>0.6705331228065798</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7820187578120279</v>
+        <v>0.7788936033897124</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>314</v>
@@ -5787,19 +5787,19 @@
         <v>324951</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>304258</v>
+        <v>303164</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>344820</v>
+        <v>341661</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7197672228495312</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6739328805793506</v>
+        <v>0.6715081698615649</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.76377700125671</v>
+        <v>0.7567791112921247</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>15760</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9094</v>
+        <v>9318</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24313</v>
+        <v>24792</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.133499219141113</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07702727994703551</v>
+        <v>0.07892667371097792</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2059425603822298</v>
+        <v>0.2100049741013688</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -5912,19 +5912,19 @@
         <v>20816</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13259</v>
+        <v>12299</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32173</v>
+        <v>31668</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1719798346640838</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1095411534211551</v>
+        <v>0.1016166483744726</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2658133055075408</v>
+        <v>0.2616353048526718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -5933,19 +5933,19 @@
         <v>36576</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25675</v>
+        <v>25890</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48308</v>
+        <v>49057</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1529794049334522</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.107385969945993</v>
+        <v>0.1082829321057672</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2020467459425627</v>
+        <v>0.2051794461321</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>7140</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2899</v>
+        <v>2892</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14774</v>
+        <v>15547</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06047771843742433</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0245546879412379</v>
+        <v>0.0245006591541739</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1251419566690174</v>
+        <v>0.1316899661730563</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -5983,19 +5983,19 @@
         <v>7595</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3456</v>
+        <v>3064</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14877</v>
+        <v>14304</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06275201344184277</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02855064684115358</v>
+        <v>0.02531413250386176</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1229111489408478</v>
+        <v>0.1181802690242492</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -6004,19 +6004,19 @@
         <v>14735</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8627</v>
+        <v>8336</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24284</v>
+        <v>23942</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06162904329620195</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0360822070035244</v>
+        <v>0.03486685754801793</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.101568308397918</v>
+        <v>0.1001349288260993</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>15891</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9292</v>
+        <v>8951</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25544</v>
+        <v>25255</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.134609135367751</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07870720545752428</v>
+        <v>0.07581728504611358</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2163752541603496</v>
+        <v>0.2139255443137932</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -6054,19 +6054,19 @@
         <v>15480</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9677</v>
+        <v>9240</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25459</v>
+        <v>24001</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1278962321029204</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07995294329209687</v>
+        <v>0.07633839268336359</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2103436542216135</v>
+        <v>0.1982920858886761</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -6075,19 +6075,19 @@
         <v>31372</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>21639</v>
+        <v>20604</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>44107</v>
+        <v>43466</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1312108372629081</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09050492796129819</v>
+        <v>0.08617682982262208</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.184478130236307</v>
+        <v>0.1817933542385204</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>79264</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>67894</v>
+        <v>68276</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>89184</v>
+        <v>89414</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6714139270537116</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5751000319414229</v>
+        <v>0.5783317157219673</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7554378566900782</v>
+        <v>0.7573833111064996</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>73</v>
@@ -6125,19 +6125,19 @@
         <v>77146</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64820</v>
+        <v>65215</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>87024</v>
+        <v>88255</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.637371919791153</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5355406041248211</v>
+        <v>0.5387993812243993</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7189883423107487</v>
+        <v>0.7291559500399922</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>148</v>
@@ -6146,19 +6146,19 @@
         <v>156410</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>141153</v>
+        <v>141046</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>171436</v>
+        <v>172707</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6541807145074378</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5903665986882116</v>
+        <v>0.5899194664276094</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7170249183464684</v>
+        <v>0.7223409268446698</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>86552</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>69363</v>
+        <v>68598</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>105729</v>
+        <v>107497</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1073234238326612</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08600947301273901</v>
+        <v>0.08506062714123443</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.131102135720611</v>
+        <v>0.1332948673328272</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>125</v>
@@ -6271,19 +6271,19 @@
         <v>137243</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>116224</v>
+        <v>115613</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>158988</v>
+        <v>163203</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.124382507412146</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1053332143516699</v>
+        <v>0.1047794439535171</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1440903833876029</v>
+        <v>0.1479105322427597</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>204</v>
@@ -6292,19 +6292,19 @@
         <v>223795</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>197657</v>
+        <v>195541</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>255047</v>
+        <v>252423</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1171790911001672</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1034935303951981</v>
+        <v>0.1023855535387061</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1335430614773775</v>
+        <v>0.1321691298538495</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>49202</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36655</v>
+        <v>35967</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63683</v>
+        <v>64314</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0610096894448422</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04545131759017565</v>
+        <v>0.04459906515791955</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07896659236267758</v>
+        <v>0.07974891444808715</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>96</v>
@@ -6342,19 +6342,19 @@
         <v>105474</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>87080</v>
+        <v>86819</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>126618</v>
+        <v>126265</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09559033043941184</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07891981325724813</v>
+        <v>0.0786839718104087</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1147535109277312</v>
+        <v>0.1144336781985811</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>142</v>
@@ -6363,19 +6363,19 @@
         <v>154675</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>132242</v>
+        <v>133008</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>180884</v>
+        <v>180982</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08098821232103111</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0692421938944751</v>
+        <v>0.06964327137816967</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09471121252430048</v>
+        <v>0.09476223844817995</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>102549</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>83908</v>
+        <v>84563</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>122642</v>
+        <v>123172</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1271588778713574</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1040453629954777</v>
+        <v>0.1048568632083579</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1520742449660399</v>
+        <v>0.1527311251261656</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>118</v>
@@ -6413,19 +6413,19 @@
         <v>123935</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>102739</v>
+        <v>104600</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>146325</v>
+        <v>146867</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.11232137069734</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09311196473072667</v>
+        <v>0.09479849333166677</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1326134488446011</v>
+        <v>0.1331044632648867</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>214</v>
@@ -6434,19 +6434,19 @@
         <v>226483</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>198823</v>
+        <v>199236</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>256990</v>
+        <v>255897</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1185866979470965</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1041040478256439</v>
+        <v>0.1043203106720857</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1345602974522014</v>
+        <v>0.1339879116110776</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>568158</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>540659</v>
+        <v>541588</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>593914</v>
+        <v>594535</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7045080088511392</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6704105873092451</v>
+        <v>0.671561979205022</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7364451990073405</v>
+        <v>0.7372155061289777</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>683</v>
@@ -6484,19 +6484,19 @@
         <v>736742</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>705404</v>
+        <v>703105</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>766662</v>
+        <v>767897</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6677057914511021</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6393042786205263</v>
+        <v>0.6372206857697199</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6948224220522192</v>
+        <v>0.6959417457031464</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1231</v>
@@ -6505,19 +6505,19 @@
         <v>1304899</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1262575</v>
+        <v>1263591</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1346181</v>
+        <v>1345720</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6832459986317052</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6610851964608528</v>
+        <v>0.6616174158045571</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7048613794675787</v>
+        <v>0.7046198608037476</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>27182</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18527</v>
+        <v>19325</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37292</v>
+        <v>38474</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2511073057604958</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1711472990448724</v>
+        <v>0.178524054201847</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3444967569147848</v>
+        <v>0.3554195273234141</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -6870,19 +6870,19 @@
         <v>30515</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22498</v>
+        <v>22798</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39944</v>
+        <v>40485</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1683505591903331</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1241187811194125</v>
+        <v>0.1257720819446499</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2203663039240964</v>
+        <v>0.2233546679759905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -6891,19 +6891,19 @@
         <v>57698</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46006</v>
+        <v>45983</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71653</v>
+        <v>70947</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1992937121505055</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1589089111533804</v>
+        <v>0.1588284723982521</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2474964459171136</v>
+        <v>0.245059004239804</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>34127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24814</v>
+        <v>24075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45258</v>
+        <v>44690</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3152598365729893</v>
+        <v>0.3152598365729894</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.229225745657981</v>
+        <v>0.2224062622842901</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4180836774725983</v>
+        <v>0.4128420442529623</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>89</v>
@@ -6941,19 +6941,19 @@
         <v>61079</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51349</v>
+        <v>51045</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72371</v>
+        <v>72297</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3369669831035207</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2832888780064844</v>
+        <v>0.2816132277966366</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3992648342180623</v>
+        <v>0.3988566412090659</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>121</v>
@@ -6962,19 +6962,19 @@
         <v>95206</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80074</v>
+        <v>81920</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>109147</v>
+        <v>111232</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3288505746744673</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2765819819831661</v>
+        <v>0.2829611652172427</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3770063027926392</v>
+        <v>0.3842078323222507</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>18649</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11657</v>
+        <v>11933</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27576</v>
+        <v>27594</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1722796085178355</v>
+        <v>0.1722796085178356</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1076840721157291</v>
+        <v>0.1102354462622078</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2547397083354723</v>
+        <v>0.2549055247613382</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>54</v>
@@ -7012,19 +7012,19 @@
         <v>37322</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28074</v>
+        <v>28147</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47477</v>
+        <v>46597</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2059008776725415</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.154882418063419</v>
+        <v>0.1552827743717174</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2619277147328484</v>
+        <v>0.2570721081446282</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>75</v>
@@ -7033,19 +7033,19 @@
         <v>55971</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43489</v>
+        <v>44350</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>68024</v>
+        <v>68631</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1933297204281328</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1502161368915414</v>
+        <v>0.1531897990637838</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2349620150007837</v>
+        <v>0.2370568104155656</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>28291</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19768</v>
+        <v>19978</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38245</v>
+        <v>38087</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2613532491486792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1826145874413116</v>
+        <v>0.1845576275098399</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.353300911712469</v>
+        <v>0.3518465298324127</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -7083,19 +7083,19 @@
         <v>52345</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42013</v>
+        <v>41661</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63854</v>
+        <v>63449</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2887815800336048</v>
+        <v>0.2887815800336047</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.231782981120807</v>
+        <v>0.229842239325458</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3522774058767293</v>
+        <v>0.3500413367238406</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -7104,19 +7104,19 @@
         <v>80636</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67651</v>
+        <v>66583</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97406</v>
+        <v>96755</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2785259927468944</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.23367341694565</v>
+        <v>0.229984965039955</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3364490268383554</v>
+        <v>0.3342002155120913</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>27269</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18554</v>
+        <v>19449</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36885</v>
+        <v>37974</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1656466037684877</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.112709740880667</v>
+        <v>0.1181426577103321</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2240602963171119</v>
+        <v>0.2306781421773252</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>93</v>
@@ -7229,19 +7229,19 @@
         <v>61698</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51598</v>
+        <v>50282</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>75007</v>
+        <v>73841</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2344077255913978</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1960362746495336</v>
+        <v>0.1910354170880219</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2849739406096292</v>
+        <v>0.280544747658807</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>125</v>
@@ -7250,19 +7250,19 @@
         <v>88966</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>75076</v>
+        <v>74889</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>103558</v>
+        <v>106063</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.20794978478743</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1754830580188919</v>
+        <v>0.1750447895145283</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.242056454642881</v>
+        <v>0.2479122208324963</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>47727</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35910</v>
+        <v>37198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58943</v>
+        <v>61559</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2899269097299093</v>
+        <v>0.2899269097299094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.218141045542836</v>
+        <v>0.2259649687172914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3580548514941354</v>
+        <v>0.3739479741764772</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>131</v>
@@ -7300,19 +7300,19 @@
         <v>88387</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75773</v>
+        <v>74798</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102832</v>
+        <v>101011</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3358094609992166</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2878847734714083</v>
+        <v>0.2841809414012441</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3906891961775512</v>
+        <v>0.3837706799762566</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>184</v>
@@ -7321,19 +7321,19 @@
         <v>136115</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120205</v>
+        <v>118981</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>154634</v>
+        <v>153152</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3181547486670819</v>
+        <v>0.3181547486670818</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2809685991222641</v>
+        <v>0.2781070102393873</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3614414457536886</v>
+        <v>0.3579772907341839</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>25826</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18003</v>
+        <v>17526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37249</v>
+        <v>36008</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1568808772878633</v>
+        <v>0.1568808772878634</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1093603737610721</v>
+        <v>0.1064660021100574</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2262756839459847</v>
+        <v>0.2187336737965048</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>70</v>
@@ -7371,19 +7371,19 @@
         <v>42217</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32502</v>
+        <v>32970</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52615</v>
+        <v>52898</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1603959952455239</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1234839357032828</v>
+        <v>0.1252638889540156</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1999015520813219</v>
+        <v>0.2009742867161745</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -7392,19 +7392,19 @@
         <v>68043</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>55960</v>
+        <v>54740</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>82197</v>
+        <v>82535</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1590434462995909</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1308007981372177</v>
+        <v>0.1279505329216057</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1921282810588555</v>
+        <v>0.1929182201559225</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>63797</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>51510</v>
+        <v>49612</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>77052</v>
+        <v>76097</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3875456092137397</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.31290363167953</v>
+        <v>0.3013751619997487</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4680624878106548</v>
+        <v>0.4622589583569036</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>107</v>
@@ -7442,19 +7442,19 @@
         <v>70904</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>57272</v>
+        <v>59871</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82813</v>
+        <v>83902</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2693868181638617</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2175939754875004</v>
+        <v>0.2274676162269443</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3146306972975347</v>
+        <v>0.3187682159380751</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>174</v>
@@ -7463,19 +7463,19 @@
         <v>134702</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>118045</v>
+        <v>116534</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>153637</v>
+        <v>154283</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3148520202458972</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2759196556587125</v>
+        <v>0.2723880447526654</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3591117227388244</v>
+        <v>0.3606207634022786</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>29981</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20904</v>
+        <v>20947</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42396</v>
+        <v>41157</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1580489491347542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1101962139293745</v>
+        <v>0.1104263506240341</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2234957574351781</v>
+        <v>0.2169654599723192</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -7588,19 +7588,19 @@
         <v>45846</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35238</v>
+        <v>36109</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58787</v>
+        <v>57977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2003989764369926</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1540277194506801</v>
+        <v>0.1578373586548696</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2569633788116432</v>
+        <v>0.2534237977919006</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>98</v>
@@ -7609,19 +7609,19 @@
         <v>75828</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>62218</v>
+        <v>61518</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>91252</v>
+        <v>90658</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1812014178719005</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1486803323713562</v>
+        <v>0.1470075257073885</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.21806140956286</v>
+        <v>0.2166414831611896</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>58509</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>46826</v>
+        <v>47072</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>73451</v>
+        <v>70857</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3084346136175862</v>
+        <v>0.3084346136175861</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2468476492792126</v>
+        <v>0.2481459199253591</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3872049048622119</v>
+        <v>0.3735271769936788</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>90</v>
@@ -7659,19 +7659,19 @@
         <v>62069</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>50872</v>
+        <v>52263</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>74798</v>
+        <v>75080</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2713101186767012</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2223675291529606</v>
+        <v>0.2284475635645528</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3269510306536784</v>
+        <v>0.3281838619444646</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>154</v>
@@ -7680,19 +7680,19 @@
         <v>120578</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>102652</v>
+        <v>103161</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>137826</v>
+        <v>136948</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2881389074928405</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2453026018784012</v>
+        <v>0.2465188925605812</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.329356292515217</v>
+        <v>0.3272570882209477</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>38560</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27746</v>
+        <v>27312</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51638</v>
+        <v>50324</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2032733640591041</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1462635658902489</v>
+        <v>0.1439780453373211</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2722135768261089</v>
+        <v>0.2652882887046724</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -7730,19 +7730,19 @@
         <v>37394</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27727</v>
+        <v>28256</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47581</v>
+        <v>48472</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1634534800622949</v>
+        <v>0.1634534800622948</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1211997527561927</v>
+        <v>0.1235088800071136</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2079827921450474</v>
+        <v>0.2118765317855926</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>98</v>
@@ -7751,19 +7751,19 @@
         <v>75954</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62588</v>
+        <v>62586</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>92874</v>
+        <v>92831</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1815041072703561</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.149564605219468</v>
+        <v>0.1495579754023054</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2219374091678628</v>
+        <v>0.2218328225106761</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>62646</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>48918</v>
+        <v>49958</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>77035</v>
+        <v>76840</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3302430731885556</v>
+        <v>0.3302430731885555</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2578744202779394</v>
+        <v>0.2633581841721852</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4060971958599857</v>
+        <v>0.4050711626340874</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>122</v>
@@ -7801,19 +7801,19 @@
         <v>83466</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69437</v>
+        <v>70730</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>97072</v>
+        <v>97374</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3648374248240113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.303518451499997</v>
+        <v>0.3091699566999474</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4243117234165208</v>
+        <v>0.425632981077026</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>185</v>
@@ -7822,19 +7822,19 @@
         <v>146111</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>126273</v>
+        <v>125930</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>164232</v>
+        <v>164263</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3491555673649028</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3017490775365287</v>
+        <v>0.3009284824795804</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3924574011212584</v>
+        <v>0.3925302958143975</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>35528</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25559</v>
+        <v>26107</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49203</v>
+        <v>47985</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1989839592169282</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1431472250499453</v>
+        <v>0.1462219134195154</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2755722941480018</v>
+        <v>0.268750291725887</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -7947,19 +7947,19 @@
         <v>39499</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29879</v>
+        <v>29933</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49357</v>
+        <v>50422</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2030696231075505</v>
+        <v>0.2030696231075506</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1536079884134679</v>
+        <v>0.1538861202552942</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2537458461141378</v>
+        <v>0.2592252762354477</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>92</v>
@@ -7968,19 +7968,19 @@
         <v>75027</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>61104</v>
+        <v>61424</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>91892</v>
+        <v>91781</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2011142114567998</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1637927278497664</v>
+        <v>0.1646486585768986</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2463199077009354</v>
+        <v>0.246022313865927</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>45739</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33598</v>
+        <v>34509</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57446</v>
+        <v>58466</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2561760249790639</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1881738874388355</v>
+        <v>0.1932761784087004</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3217427837790906</v>
+        <v>0.3274533341252928</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>79</v>
@@ -8018,19 +8018,19 @@
         <v>55468</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44335</v>
+        <v>45254</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>67386</v>
+        <v>67897</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.285163136846425</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2279281468315623</v>
+        <v>0.2326552526413059</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3464355373081297</v>
+        <v>0.3490643952821375</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>126</v>
@@ -8039,19 +8039,19 @@
         <v>101207</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>85618</v>
+        <v>85535</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>117577</v>
+        <v>118434</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2712898134932361</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2295026567486184</v>
+        <v>0.229280650627898</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3151688442734353</v>
+        <v>0.317467408440663</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>31504</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21516</v>
+        <v>22046</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>44543</v>
+        <v>45386</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1764477864205118</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1205078177302401</v>
+        <v>0.123475170299906</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2494767096170326</v>
+        <v>0.2541962259331299</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>47</v>
@@ -8089,19 +8089,19 @@
         <v>34518</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>25224</v>
+        <v>25280</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44227</v>
+        <v>44397</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1774584649848731</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1296782471494335</v>
+        <v>0.1299666051130804</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2273720483825586</v>
+        <v>0.2282506598526879</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>78</v>
@@ -8110,19 +8110,19 @@
         <v>66022</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>51951</v>
+        <v>53810</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>82190</v>
+        <v>83020</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1769747510297306</v>
+        <v>0.1769747510297305</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1392556833926215</v>
+        <v>0.1442400614479697</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2203130631886173</v>
+        <v>0.2225390998041868</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>65775</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51632</v>
+        <v>52513</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80961</v>
+        <v>80373</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3683922293834961</v>
+        <v>0.368392229383496</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2891773066500352</v>
+        <v>0.2941109773714771</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4534409594881763</v>
+        <v>0.4501518914434177</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -8160,19 +8160,19 @@
         <v>65027</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53014</v>
+        <v>53769</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78314</v>
+        <v>78155</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3343087750611513</v>
+        <v>0.3343087750611514</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2725505543795236</v>
+        <v>0.2764283700522076</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4026160009275074</v>
+        <v>0.4017996904120569</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>148</v>
@@ -8181,19 +8181,19 @@
         <v>130802</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>110898</v>
+        <v>112087</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>149128</v>
+        <v>149695</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3506212240202335</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2972669358801178</v>
+        <v>0.300454640177909</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3997443656321319</v>
+        <v>0.401264076868047</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>119960</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>99322</v>
+        <v>99683</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>138645</v>
+        <v>140130</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1871126521765587</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1549220346640626</v>
+        <v>0.155483951353327</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2162569685181539</v>
+        <v>0.2185726821096156</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>255</v>
@@ -8306,19 +8306,19 @@
         <v>177559</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>158310</v>
+        <v>157716</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>201589</v>
+        <v>199813</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2046186618397356</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1824357300025542</v>
+        <v>0.1817521118526164</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.232311224240831</v>
+        <v>0.2302646932043047</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>383</v>
@@ -8327,19 +8327,19 @@
         <v>297519</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>271802</v>
+        <v>269183</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>327613</v>
+        <v>327468</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1971804265795824</v>
+        <v>0.1971804265795823</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1801363353524791</v>
+        <v>0.1784009952748548</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2171252475412605</v>
+        <v>0.2170292545946958</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>186103</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>163550</v>
+        <v>162396</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>210793</v>
+        <v>208520</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2902809734557261</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2551037078034978</v>
+        <v>0.2533043719545163</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3287932361553275</v>
+        <v>0.3252480693532823</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>389</v>
@@ -8377,19 +8377,19 @@
         <v>267003</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>245289</v>
+        <v>243160</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>292029</v>
+        <v>292351</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3076939823700128</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2826707999366152</v>
+        <v>0.2802178319784939</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3365339206516688</v>
+        <v>0.3369053047227912</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>585</v>
@@ -8398,19 +8398,19 @@
         <v>453106</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>422887</v>
+        <v>416268</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>486360</v>
+        <v>486116</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3002952627655073</v>
+        <v>0.3002952627655072</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2802677402146631</v>
+        <v>0.275881174394245</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.322334531590228</v>
+        <v>0.3221729158732095</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>114539</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>94402</v>
+        <v>97074</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>136478</v>
+        <v>135346</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1786571005186432</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1472474255872471</v>
+        <v>0.1514144392989205</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2128769929637221</v>
+        <v>0.2111107096180508</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>226</v>
@@ -8448,19 +8448,19 @@
         <v>151451</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>132367</v>
+        <v>133914</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>170810</v>
+        <v>173975</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1745320216049487</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1525399844613318</v>
+        <v>0.1543220292510402</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1968411052650361</v>
+        <v>0.2004887128798324</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>349</v>
@@ -8469,19 +8469,19 @@
         <v>265990</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>239790</v>
+        <v>240327</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>296700</v>
+        <v>295196</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1762847515540986</v>
+        <v>0.1762847515540985</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1589207468843309</v>
+        <v>0.1592767709965243</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1966378195261975</v>
+        <v>0.1956410127042461</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>220510</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>194641</v>
+        <v>195658</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>246647</v>
+        <v>246583</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3439492738490719</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3035991822989462</v>
+        <v>0.3051852524357262</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3847167366117462</v>
+        <v>0.3846178013879464</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>393</v>
@@ -8519,19 +8519,19 @@
         <v>271742</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>246932</v>
+        <v>246280</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>297205</v>
+        <v>294781</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3131553341853029</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.284563893102512</v>
+        <v>0.2838124109396737</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.342498849862995</v>
+        <v>0.3397057169390879</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>613</v>
@@ -8540,19 +8540,19 @@
         <v>492252</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>454493</v>
+        <v>458338</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>525641</v>
+        <v>527890</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.3262395591008119</v>
+        <v>0.3262395591008118</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.301214545947981</v>
+        <v>0.3037630144650763</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3483678282357196</v>
+        <v>0.3498587605298001</v>
       </c>
     </row>
     <row r="28">
